--- a/biology/Botanique/Garcinia_staudtii/Garcinia_staudtii.xlsx
+++ b/biology/Botanique/Garcinia_staudtii/Garcinia_staudtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Garcinia staudtii Engl. est une espèce de plantes à fleurs de la famille des Clusiaceae, du genre Garcinia[2],[3], présente au Cameroun et au Nigeria. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Garcinia staudtii Engl. est une espèce de plantes à fleurs de la famille des Clusiaceae, du genre Garcinia présente au Cameroun et au Nigeria. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique staudtii rend hommage au botaniste et collecteur allemand Alois Staudt, qui accompagna notamment Georg August Zenker dans ses expéditions au Cameroun[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique staudtii rend hommage au botaniste et collecteur allemand Alois Staudt, qui accompagna notamment Georg August Zenker dans ses expéditions au Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre d'environ 12 à 15 m de haut[5],[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre d'environ 12 à 15 m de haut,. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Subendémique, l'espèce a été observée dans plusieurs régions du Cameroun (Sud-Ouest, Littoral, Sud), au sud-est du Nigeria, également sur un site au Gabon[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subendémique, l'espèce a été observée dans plusieurs régions du Cameroun (Sud-Ouest, Littoral, Sud), au sud-est du Nigeria, également sur un site au Gabon.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est présente dans les forêts littorales de basse altitude[7].
-Selon les critères de l’IUCN, elle est évaluée comme une espèce vulnérable[8]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente dans les forêts littorales de basse altitude.
+Selon les critères de l’IUCN, elle est évaluée comme une espèce vulnérable. 
 </t>
         </is>
       </c>
